--- a/data/trans_camb/P25_12-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_12-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>7,67</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,34</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,25</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 5,78</t>
+          <t>-3,81; 6,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,63</t>
+          <t>-5,49; 4,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 10,9</t>
+          <t>-1,83; 11,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 6,29</t>
+          <t>1,92; 15,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 6,94</t>
+          <t>-3,35; 10,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,76</t>
+          <t>0,83; 15,33</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 9,66</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 5,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,26; 11,13</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>-12,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>72,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>62,99%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>58,62%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13,4%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>68,52%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,42; 195,53</t>
+          <t>-49,08; 252,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,01; 142,78</t>
+          <t>-70,03; 155,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 92,92</t>
+          <t>-26,74; 343,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,77; 51,94</t>
+          <t>8,63; 185,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 86,76</t>
+          <t>-23,0; 111,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 45,21</t>
+          <t>2,66; 171,25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 134,0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-28,15; 73,51</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 156,63</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 3,64</t>
+          <t>-7,7; 4,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 4,87</t>
+          <t>-6,2; 7,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 7,04</t>
+          <t>-4,97; 8,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 5,09</t>
+          <t>-7,63; 8,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 3,72</t>
+          <t>-12,03; 2,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 3,02</t>
+          <t>-6,5; 10,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 4,52</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; 2,94</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 6,93</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,16%</t>
+          <t>-18,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,85%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,28%</t>
+          <t>-27,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,12%</t>
+          <t>15,95%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-5,29%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-16,67%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,68; 91,5</t>
+          <t>-68,47; 97,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-51,27; 121,19</t>
+          <t>-52,66; 171,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 57,55</t>
+          <t>-44,97; 187,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 43,96</t>
+          <t>-39,1; 77,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,41; 41,37</t>
+          <t>-61,43; 25,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,38; 33,48</t>
+          <t>-32,65; 92,71</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-38,44; 50,4</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-49,18; 33,23</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-29,43; 73,42</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,38</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>13,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>9,57</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,96</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,18</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,86</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 13,34</t>
+          <t>-13,75; 10,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 12,83</t>
+          <t>-8,95; 25,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 21,14</t>
+          <t>-6,77; 30,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 19,77</t>
+          <t>-3,23; 28,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 13,45</t>
+          <t>-3,0; 29,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 12,61</t>
+          <t>-4,55; 25,91</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 15,2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 22,92</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 23,52</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>56,43%</t>
+          <t>-33,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>80,03%</t>
+          <t>118,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>119,47%</t>
+          <t>169,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>135,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>155,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>111,22%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>68,4%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>140,22%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>135,82%</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-71,42; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 683,38</t>
+          <t>-83,25; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,6; 613,57</t>
+          <t>-43,15; 1334,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 476,06</t>
+          <t>-37,5; 1226,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 421,32</t>
+          <t>-56,81; 1003,64</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-51,92; 529,66</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-18,57; 869,2</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-21,37; 794,17</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,6</t>
+          <t>-4,05; 3,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,47</t>
+          <t>-3,09; 4,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 7,64</t>
+          <t>-0,46; 8,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 4,01</t>
+          <t>0,62; 10,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,03</t>
+          <t>-3,68; 5,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,88</t>
+          <t>0,43; 10,73</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 6,26</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 4,07</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 8,18</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>64,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>43,29%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>28,25%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>47,78%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 90,48</t>
+          <t>-47,98; 81,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 85,4</t>
+          <t>-37,05; 93,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 62,7</t>
+          <t>-7,49; 181,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 33,1</t>
+          <t>1,97; 92,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 57,11</t>
+          <t>-23,0; 52,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 33,24</t>
+          <t>2,87; 97,54</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 73,23</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-21,94; 47,49</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10,98; 92,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
